--- a/fixtures/08 - bases.xlsx
+++ b/fixtures/08 - bases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C5C56-28A0-4147-87FB-24051071B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F65F459-4393-439B-8B73-5A72A7EF8E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2595" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1260" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Imperia</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t>VG Cloud - 10/90</t>
+  </si>
+  <si>
+    <t>My Vape</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>DL PLUS</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>Zero Ice Blade</t>
+  </si>
+  <si>
+    <t>VG Cloud - 30/70</t>
+  </si>
+  <si>
+    <t>Standard VPG 30/70</t>
   </si>
 </sst>
 </file>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4897E79-06A1-40CA-B709-5DF1556D82F2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,16 +523,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -519,16 +540,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -539,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -556,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -573,19 +594,131 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A5:A13"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.eliquidshop.cz/imperia-e-nicopharm-a479/" xr:uid="{45B3F72D-3E28-4C59-B25C-8C49F9C2497B}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.eliquidshop.cz/my-vape/" xr:uid="{7D4B9BA1-D666-49AA-9888-960FC4BECB21}"/>
+    <hyperlink ref="A9" r:id="rId3" display="https://www.eliquidshop.cz/my-vape/" xr:uid="{3EAC1784-971A-4F91-A921-58E28199004D}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.eliquidshop.cz/my-vape/" xr:uid="{44FDFEA8-4B0F-40E5-ADCE-87FC02C310CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>